--- a/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_inactive.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,1350 +5059,6 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>CHEMBL515940</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>C=C1CC[C@H]2[C@@](C)(CC[C@H]3C(C)(C)CCC[C@]23C)[C@@H]1CC1OC(=O)C=C1CO</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>C=C1CC[C@@H]2[C@@]3(C)CCCC(C)(C)[C@@H]3CC[C@@]2(C)[C@@H]1CC1OC(=O)C=C1CO</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>386.58</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q80" t="n">
-        <v>90000</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>CHEMBL950672</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 assessed as [33P] incorporation by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>CHEMBL466701</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>299.37</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>3</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2</v>
-      </c>
-      <c r="M81" t="n">
-        <v>71.09</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>65000</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>CHEMBL1011420</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>CHEMBL487191</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>312.32</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>3</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>80.65000000000001</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q82" t="n">
-        <v>130000</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>CHEMBL998215</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2 by ELISA</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>CHEMBL1813799</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>4</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" t="n">
-        <v>71.84</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q83" t="n">
-        <v>8</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>CHEMBL1815689</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>CHEMBL2425144</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>481.56</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>5</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5</v>
-      </c>
-      <c r="M84" t="n">
-        <v>128.57</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>-13</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>CHEMBL2429596</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 (unknown origin) at 1 uM by [33P]-ATP filter-binding assay</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>CHEMBL483518</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>448.53</v>
-      </c>
-      <c r="H85" t="n">
-        <v>4</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3</v>
-      </c>
-      <c r="M85" t="n">
-        <v>125.63</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>CHEMBL953383</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>CHEMBL407373</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>298.32</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
-      <c r="M86" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>5</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>CHEMBL732487</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>CHEMBL464238</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>526.25</v>
-      </c>
-      <c r="H87" t="n">
-        <v>4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2</v>
-      </c>
-      <c r="M87" t="n">
-        <v>100.05</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>5</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>CHEMBL1011756</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Binding affinity to MK2 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>CHEMBL3629317</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>304.77</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3</v>
-      </c>
-      <c r="M88" t="n">
-        <v>89.61</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>6</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>CHEMBL3630369</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 (unknown origin) at 20 uM by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>CHEMBL1170747</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>290.33</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4</v>
-      </c>
-      <c r="M89" t="n">
-        <v>84.89</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>5</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>CHEMBL1173992</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>CHEMBL187985</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>299.34</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3</v>
-      </c>
-      <c r="M90" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>CHEMBL1961968</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>CHEMBL1909403</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>431.39</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4</v>
-      </c>
-      <c r="M91" t="n">
-        <v>75.34</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>CHEMBL218932</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>339.4</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2</v>
-      </c>
-      <c r="M92" t="n">
-        <v>80.31999999999999</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>CHEMBL233001</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>332.43</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3</v>
-      </c>
-      <c r="M93" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>CHEMBL268885</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>416.89</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5</v>
-      </c>
-      <c r="K94" t="n">
-        <v>3</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3</v>
-      </c>
-      <c r="M94" t="n">
-        <v>112.48</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>CHEMBL352222</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>394.17</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>3</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>121.57</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
